--- a/tests/test6/results2.xlsx
+++ b/tests/test6/results2.xlsx
@@ -537,10 +537,10 @@
         <v>28</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003102034000001822</v>
+        <v>0.003250639700000377</v>
       </c>
       <c r="M2" t="n">
-        <v>0.009543200000052821</v>
+        <v>0.01487089999999114</v>
       </c>
     </row>
     <row r="3">
@@ -580,10 +580,10 @@
         <v>30</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003067862200000264</v>
+        <v>0.003461402600000355</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008479999999963184</v>
+        <v>0.01187170000000037</v>
       </c>
     </row>
     <row r="4">
@@ -623,10 +623,10 @@
         <v>32</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003742331900003592</v>
+        <v>0.003525984799999804</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04940380000016376</v>
+        <v>0.01583549999998013</v>
       </c>
     </row>
     <row r="5">
@@ -666,10 +666,10 @@
         <v>32</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003131339699997625</v>
+        <v>0.003295858500000293</v>
       </c>
       <c r="M5" t="n">
-        <v>0.008863100000098711</v>
+        <v>0.009160899999983485</v>
       </c>
     </row>
     <row r="6">
@@ -709,10 +709,10 @@
         <v>32</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003115890900000068</v>
+        <v>0.003558144400000572</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01569440000002942</v>
+        <v>0.02156859999999483</v>
       </c>
     </row>
     <row r="7">
@@ -752,10 +752,10 @@
         <v>31</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003066303900003504</v>
+        <v>0.003290398299999197</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01239529999998012</v>
+        <v>0.01188890000000242</v>
       </c>
     </row>
   </sheetData>
